--- a/PM演習_外部設計書_矢吹研A班 改 (2).xlsx
+++ b/PM演習_外部設計書_矢吹研A班 改 (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2126,13 +2126,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2141,16 +2135,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2162,7 +2159,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27373,7 +27373,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="85" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="85" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -28867,8 +28867,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="124" zoomScaleNormal="85" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="124" zoomScaleNormal="85" zoomScaleSheetLayoutView="124" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29809,20 +29809,20 @@
       <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="92" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="27" t="s">
         <v>22</v>
       </c>
@@ -29844,20 +29844,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="89" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="89" t="s">
+      <c r="H8" s="89"/>
+      <c r="I8" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="22" t="s">
         <v>25</v>
       </c>
@@ -29880,20 +29880,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="89" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="89" t="s">
+      <c r="H9" s="89"/>
+      <c r="I9" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="22" t="s">
         <v>65</v>
       </c>
@@ -29916,18 +29916,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="89" t="s">
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="89" t="s">
+      <c r="H10" s="89"/>
+      <c r="I10" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="22" t="s">
         <v>65</v>
       </c>
@@ -29950,20 +29950,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="89" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="89" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="22" t="s">
         <v>25</v>
       </c>
@@ -29986,18 +29986,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="89" t="s">
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="89" t="s">
+      <c r="H12" s="89"/>
+      <c r="I12" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="22" t="s">
         <v>81</v>
       </c>
@@ -30020,20 +30020,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="89" t="s">
+      <c r="F13" s="89"/>
+      <c r="G13" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="89" t="s">
+      <c r="H13" s="89"/>
+      <c r="I13" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="22" t="s">
         <v>64</v>
       </c>
@@ -30056,20 +30056,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="89" t="s">
+      <c r="F14" s="89"/>
+      <c r="G14" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="89" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="22" t="s">
         <v>64</v>
       </c>
@@ -30092,14 +30092,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -30116,14 +30116,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -30140,14 +30140,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -30164,14 +30164,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -30188,14 +30188,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -30212,14 +30212,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -30236,14 +30236,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -30257,14 +30257,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="30" t="s">
@@ -30602,6 +30602,41 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -30618,41 +30653,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -30683,7 +30683,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="113" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30797,21 +30797,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="92" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="96" t="s">
+      <c r="F6" s="91"/>
+      <c r="G6" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -30823,21 +30823,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98" t="s">
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -30847,21 +30847,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="95" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -30871,21 +30871,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="95" t="s">
+      <c r="F9" s="98"/>
+      <c r="G9" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -30895,21 +30895,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="98"/>
+      <c r="G10" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -30919,21 +30919,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="98" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="95" t="s">
+      <c r="F11" s="98"/>
+      <c r="G11" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -30943,21 +30943,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="95" t="s">
+      <c r="F12" s="98"/>
+      <c r="G12" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -30967,15 +30967,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -30985,15 +30985,15 @@
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>42</v>
@@ -31005,15 +31005,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -31457,14 +31457,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E8:F8"/>
@@ -31480,16 +31482,14 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31508,7 +31508,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
